--- a/src/main/resources/template/excel/export/goodsUnsaleReport.xlsx
+++ b/src/main/resources/template/excel/export/goodsUnsaleReport.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>商品名称</t>
   </si>
@@ -193,6 +193,10 @@
   </si>
   <si>
     <t>引入日期</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.brandName}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -661,7 +665,7 @@
   <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -773,7 +777,7 @@
         <v>20</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>21</v>

--- a/src/main/resources/template/excel/export/goodsUnsaleReport.xlsx
+++ b/src/main/resources/template/excel/export/goodsUnsaleReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>M</t>
+          <t>M4</t>
         </r>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>3")</t>
+          <t>")</t>
         </r>
       </text>
     </comment>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>商品名称</t>
   </si>
@@ -199,11 +199,33 @@
     <t>${obj.brandName}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>$[SUM(E3)]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(F3)]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(G3)]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(H3)]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -335,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -358,12 +380,83 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -383,7 +476,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -665,7 +758,7 @@
   <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -783,7 +876,31 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+    </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/template/excel/export/goodsUnsaleReport.xlsx
+++ b/src/main/resources/template/excel/export/goodsUnsaleReport.xlsx
@@ -31,26 +31,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:area(lastCell="</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>M</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>3")</t>
+          <t>jx:area(lastCell="M3")</t>
         </r>
       </text>
     </comment>
@@ -61,6 +45,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="M3")</t>
@@ -120,6 +105,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>goodsStock</t>
@@ -129,6 +115,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -204,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,12 +203,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -229,6 +218,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -236,36 +226,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -662,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -790,7 +779,7 @@
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -880,7 +869,6 @@
     <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>

--- a/src/main/resources/template/excel/export/goodsUnsaleReport.xlsx
+++ b/src/main/resources/template/excel/export/goodsUnsaleReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,26 +31,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:area(lastCell="</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>M4</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>")</t>
+          <t>jx:area(lastCell="M3")</t>
         </r>
       </text>
     </comment>
@@ -61,6 +45,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="M3")</t>
@@ -72,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>商品名称</t>
   </si>
@@ -120,6 +105,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>goodsStock</t>
@@ -129,6 +115,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -197,25 +184,6 @@
   </si>
   <si>
     <t>${obj.brandName}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>$[SUM(E3)]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(F3)]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(G3)]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(H3)]</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -223,10 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
-  </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,12 +203,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -251,6 +218,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -258,36 +226,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -357,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -380,83 +347,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -476,7 +372,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -755,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -876,38 +772,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-    </row>
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -997,7 +869,6 @@
     <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>

--- a/src/main/resources/template/excel/export/goodsUnsaleReport.xlsx
+++ b/src/main/resources/template/excel/export/goodsUnsaleReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="M3")</t>
+          <t>jx:area(lastCell="T4")</t>
         </r>
       </text>
     </comment>
@@ -48,7 +48,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="M3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="T3")</t>
         </r>
       </text>
     </comment>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>商品名称</t>
   </si>
@@ -82,10 +82,6 @@
   </si>
   <si>
     <t>${obj.branchName}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品类别</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -184,6 +180,138 @@
   </si>
   <si>
     <t>${obj.brandName}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别编号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别名称</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>货号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本价</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存金额</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.categoryCode}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.skuCode}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{obj.barCode}</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{obj.spec}</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{obj.unit}</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{obj.costPrice}</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.costAmount}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(J3+0)]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(K3+0)]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(L3+0)]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(M3+0)]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(N3+0)]</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -353,6 +481,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -372,7 +568,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -651,29 +847,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="18.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="29.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="18" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="1" max="5" width="18.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="2" customWidth="1"/>
+    <col min="8" max="10" width="10" style="2" customWidth="1"/>
+    <col min="11" max="12" width="8.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="29.75" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16" style="2" customWidth="1"/>
+    <col min="17" max="17" width="14" style="2" customWidth="1"/>
+    <col min="18" max="18" width="14.875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="18" style="2" customWidth="1"/>
+    <col min="20" max="20" width="15.125" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -684,13 +882,20 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -698,40 +903,61 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -739,52 +965,106 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="S3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+    </row>
+    <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -871,7 +1151,7 @@
     <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:T1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/goodsUnsaleReport.xlsx
+++ b/src/main/resources/template/excel/export/goodsUnsaleReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -319,6 +319,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -452,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -475,80 +478,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -568,7 +510,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -850,7 +792,7 @@
   <dimension ref="A1:T100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -985,22 +927,22 @@
       <c r="I3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="P3" s="6" t="s">
@@ -1031,19 +973,19 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="12" t="s">
         <v>46</v>
       </c>
       <c r="O4" s="3"/>
